--- a/doc/需求细分.xlsx
+++ b/doc/需求细分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>后台数据服务输出到echar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,8 +260,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F18" totalsRowShown="0">
+  <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="分类"/>
     <tableColumn id="2" name="模块"/>
@@ -557,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,21 +650,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -668,10 +670,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -679,68 +681,68 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -748,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -759,21 +761,32 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>
